--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Btla-Cd79a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Btla-Cd79a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd79a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1285086666666667</v>
+        <v>0.122074</v>
       </c>
       <c r="H2">
-        <v>0.385526</v>
+        <v>0.244148</v>
       </c>
       <c r="I2">
-        <v>0.04256045647344217</v>
+        <v>0.0286904980655642</v>
       </c>
       <c r="J2">
-        <v>0.04291740287405867</v>
+        <v>0.01942745705036666</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.206781</v>
+        <v>0.824894</v>
       </c>
       <c r="N2">
-        <v>2.413562</v>
+        <v>1.649788</v>
       </c>
       <c r="O2">
-        <v>0.2230791676398498</v>
+        <v>0.1836966633615576</v>
       </c>
       <c r="P2">
-        <v>0.1749948720967893</v>
+        <v>0.1396116435840629</v>
       </c>
       <c r="Q2">
-        <v>0.1550818172686667</v>
+        <v>0.100698110156</v>
       </c>
       <c r="R2">
-        <v>0.9304909036120002</v>
+        <v>0.402792440624</v>
       </c>
       <c r="S2">
-        <v>0.009494351204467536</v>
+        <v>0.005270348764825366</v>
       </c>
       <c r="T2">
-        <v>0.007510325426672275</v>
+        <v>0.002712299209460481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1285086666666667</v>
+        <v>0.122074</v>
       </c>
       <c r="H3">
-        <v>0.385526</v>
+        <v>0.244148</v>
       </c>
       <c r="I3">
-        <v>0.04256045647344217</v>
+        <v>0.0286904980655642</v>
       </c>
       <c r="J3">
-        <v>0.04291740287405867</v>
+        <v>0.01942745705036666</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.702509</v>
       </c>
       <c r="O3">
-        <v>0.2281420920335594</v>
+        <v>0.2748387669066721</v>
       </c>
       <c r="P3">
-        <v>0.2684497389717816</v>
+        <v>0.3133210854211482</v>
       </c>
       <c r="Q3">
-        <v>0.1586014983037778</v>
+        <v>0.1506600278886667</v>
       </c>
       <c r="R3">
-        <v>1.427413484734</v>
+        <v>0.903960167332</v>
       </c>
       <c r="S3">
-        <v>0.009709831577754341</v>
+        <v>0.007885261110277927</v>
       </c>
       <c r="T3">
-        <v>0.01152116559888784</v>
+        <v>0.006087031929993621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.122074</v>
+      </c>
+      <c r="H4">
+        <v>0.244148</v>
+      </c>
+      <c r="I4">
+        <v>0.0286904980655642</v>
+      </c>
+      <c r="J4">
+        <v>0.01942745705036666</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.1285086666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.385526</v>
-      </c>
-      <c r="I4">
-        <v>0.04256045647344217</v>
-      </c>
-      <c r="J4">
-        <v>0.04291740287405867</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.7517809999999999</v>
+        <v>0.2308983333333333</v>
       </c>
       <c r="N4">
-        <v>2.255343</v>
+        <v>0.6926950000000001</v>
       </c>
       <c r="O4">
-        <v>0.1389702686133225</v>
+        <v>0.05141903494155376</v>
       </c>
       <c r="P4">
-        <v>0.1635232323923682</v>
+        <v>0.05861861490837761</v>
       </c>
       <c r="Q4">
-        <v>0.09661037393533334</v>
+        <v>0.02818668314333334</v>
       </c>
       <c r="R4">
-        <v>0.869493365418</v>
+        <v>0.16912009886</v>
       </c>
       <c r="S4">
-        <v>0.005914638068419877</v>
+        <v>0.001475237722523826</v>
       </c>
       <c r="T4">
-        <v>0.007017992443851588</v>
+        <v>0.001138810623484489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1285086666666667</v>
+        <v>0.122074</v>
       </c>
       <c r="H5">
-        <v>0.385526</v>
+        <v>0.244148</v>
       </c>
       <c r="I5">
-        <v>0.04256045647344217</v>
+        <v>0.0286904980655642</v>
       </c>
       <c r="J5">
-        <v>0.04291740287405867</v>
+        <v>0.01942745705036666</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.2299925</v>
+        <v>0.8296935</v>
       </c>
       <c r="N5">
-        <v>2.459985</v>
+        <v>1.659387</v>
       </c>
       <c r="O5">
-        <v>0.227369923045903</v>
+        <v>0.184765469942529</v>
       </c>
       <c r="P5">
-        <v>0.1783607632350112</v>
+        <v>0.1404239492662254</v>
       </c>
       <c r="Q5">
-        <v>0.158064696185</v>
+        <v>0.101284004319</v>
       </c>
       <c r="R5">
-        <v>0.9483881771100001</v>
+        <v>0.405136017276</v>
       </c>
       <c r="S5">
-        <v>0.009676967713165051</v>
+        <v>0.005301013357969188</v>
       </c>
       <c r="T5">
-        <v>0.00765478073268157</v>
+        <v>0.002728080243212461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.122074</v>
+      </c>
+      <c r="H6">
+        <v>0.244148</v>
+      </c>
+      <c r="I6">
+        <v>0.0286904980655642</v>
+      </c>
+      <c r="J6">
+        <v>0.01942745705036666</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.1285086666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.385526</v>
-      </c>
-      <c r="I6">
-        <v>0.04256045647344217</v>
-      </c>
-      <c r="J6">
-        <v>0.04291740287405867</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.656651</v>
+        <v>0.6736033333333333</v>
       </c>
       <c r="N6">
-        <v>1.969953</v>
+        <v>2.02081</v>
       </c>
       <c r="O6">
-        <v>0.1213850388014685</v>
+        <v>0.1500055580020662</v>
       </c>
       <c r="P6">
-        <v>0.1428310825542026</v>
+        <v>0.1710090056850397</v>
       </c>
       <c r="Q6">
-        <v>0.08438534447533334</v>
+        <v>0.08222945331333334</v>
       </c>
       <c r="R6">
-        <v>0.759468100278</v>
+        <v>0.49337671988</v>
       </c>
       <c r="S6">
-        <v>0.00516620266043699</v>
+        <v>0.004303734171682158</v>
       </c>
       <c r="T6">
-        <v>0.006129939112916647</v>
+        <v>0.003322270113172016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1285086666666667</v>
+        <v>0.122074</v>
       </c>
       <c r="H7">
-        <v>0.385526</v>
+        <v>0.244148</v>
       </c>
       <c r="I7">
-        <v>0.04256045647344217</v>
+        <v>0.0286904980655642</v>
       </c>
       <c r="J7">
-        <v>0.04291740287405867</v>
+        <v>0.01942745705036666</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3302783333333333</v>
+        <v>0.6972636666666667</v>
       </c>
       <c r="N7">
-        <v>0.990835</v>
+        <v>2.091791</v>
       </c>
       <c r="O7">
-        <v>0.06105350986589683</v>
+        <v>0.1552745068456214</v>
       </c>
       <c r="P7">
-        <v>0.07184031074984699</v>
+        <v>0.1770157011351462</v>
       </c>
       <c r="Q7">
-        <v>0.04244362824555557</v>
+        <v>0.08511776484466667</v>
       </c>
       <c r="R7">
-        <v>0.3819926542100001</v>
+        <v>0.510706589068</v>
       </c>
       <c r="S7">
-        <v>0.002598465249198374</v>
+        <v>0.004454902938285734</v>
       </c>
       <c r="T7">
-        <v>0.003083199559048752</v>
+        <v>0.003438964931043594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.6763393333333333</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H8">
-        <v>2.029018</v>
+        <v>0.385526</v>
       </c>
       <c r="I8">
-        <v>0.2239950931268726</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="J8">
-        <v>0.2258736970910309</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.206781</v>
+        <v>0.824894</v>
       </c>
       <c r="N8">
-        <v>2.413562</v>
+        <v>1.649788</v>
       </c>
       <c r="O8">
-        <v>0.2230791676398498</v>
+        <v>0.1836966633615576</v>
       </c>
       <c r="P8">
-        <v>0.1749948720967893</v>
+        <v>0.1396116435840629</v>
       </c>
       <c r="Q8">
-        <v>0.8161934570193333</v>
+        <v>0.1060060280813334</v>
       </c>
       <c r="R8">
-        <v>4.897160742116</v>
+        <v>0.636036168488</v>
       </c>
       <c r="S8">
-        <v>0.04996863893015337</v>
+        <v>0.005548155157003304</v>
       </c>
       <c r="T8">
-        <v>0.03952673873247387</v>
+        <v>0.004282901621256211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.6763393333333333</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H9">
-        <v>2.029018</v>
+        <v>0.385526</v>
       </c>
       <c r="I9">
-        <v>0.2239950931268726</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="J9">
-        <v>0.2258736970910309</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.702509</v>
       </c>
       <c r="O9">
-        <v>0.2281420920335594</v>
+        <v>0.2748387669066721</v>
       </c>
       <c r="P9">
-        <v>0.2684497389717816</v>
+        <v>0.3133210854211482</v>
       </c>
       <c r="Q9">
-        <v>0.8347174895735555</v>
+        <v>0.1586014983037778</v>
       </c>
       <c r="R9">
-        <v>7.512457406161999</v>
+        <v>1.427413484734</v>
       </c>
       <c r="S9">
-        <v>0.05110270915121667</v>
+        <v>0.00830090266232233</v>
       </c>
       <c r="T9">
-        <v>0.0606357350246785</v>
+        <v>0.00961183000410702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,46 +1039,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.6763393333333333</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H10">
-        <v>2.029018</v>
+        <v>0.385526</v>
       </c>
       <c r="I10">
-        <v>0.2239950931268726</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="J10">
-        <v>0.2258736970910309</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7517809999999999</v>
+        <v>0.2308983333333333</v>
       </c>
       <c r="N10">
-        <v>2.255343</v>
+        <v>0.6926950000000001</v>
       </c>
       <c r="O10">
-        <v>0.1389702686133225</v>
+        <v>0.05141903494155376</v>
       </c>
       <c r="P10">
-        <v>0.1635232323923682</v>
+        <v>0.05861861490837761</v>
       </c>
       <c r="Q10">
-        <v>0.5084590603526666</v>
+        <v>0.02967243695222223</v>
       </c>
       <c r="R10">
-        <v>4.576131543173999</v>
+        <v>0.26705193257</v>
       </c>
       <c r="S10">
-        <v>0.03112865825990766</v>
+        <v>0.001552999268787022</v>
       </c>
       <c r="T10">
-        <v>0.03693559706074002</v>
+        <v>0.001798258041964223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.6763393333333333</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H11">
-        <v>2.029018</v>
+        <v>0.385526</v>
       </c>
       <c r="I11">
-        <v>0.2239950931268726</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="J11">
-        <v>0.2258736970910309</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.2299925</v>
+        <v>0.8296935</v>
       </c>
       <c r="N11">
-        <v>2.459985</v>
+        <v>1.659387</v>
       </c>
       <c r="O11">
-        <v>0.227369923045903</v>
+        <v>0.184765469942529</v>
       </c>
       <c r="P11">
-        <v>0.1783607632350112</v>
+        <v>0.1404239492662254</v>
       </c>
       <c r="Q11">
-        <v>0.831892307455</v>
+        <v>0.106622805427</v>
       </c>
       <c r="R11">
-        <v>4.99135384473</v>
+        <v>0.6397368325620001</v>
       </c>
       <c r="S11">
-        <v>0.0509297470869169</v>
+        <v>0.005580436117558282</v>
       </c>
       <c r="T11">
-        <v>0.04028700500787</v>
+        <v>0.00430782092765342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,46 +1163,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6763393333333333</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H12">
-        <v>2.029018</v>
+        <v>0.385526</v>
       </c>
       <c r="I12">
-        <v>0.2239950931268726</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="J12">
-        <v>0.2258736970910309</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.656651</v>
+        <v>0.6736033333333333</v>
       </c>
       <c r="N12">
-        <v>1.969953</v>
+        <v>2.02081</v>
       </c>
       <c r="O12">
-        <v>0.1213850388014685</v>
+        <v>0.1500055580020662</v>
       </c>
       <c r="P12">
-        <v>0.1428310825542026</v>
+        <v>0.1710090056850397</v>
       </c>
       <c r="Q12">
-        <v>0.4441188995726666</v>
+        <v>0.0865638662288889</v>
       </c>
       <c r="R12">
-        <v>3.997070096153999</v>
+        <v>0.7790747960600001</v>
       </c>
       <c r="S12">
-        <v>0.02718965307054398</v>
+        <v>0.004530589151585475</v>
       </c>
       <c r="T12">
-        <v>0.03226178467603198</v>
+        <v>0.00524608642155887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,46 +1225,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6763393333333333</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H13">
-        <v>2.029018</v>
+        <v>0.385526</v>
       </c>
       <c r="I13">
-        <v>0.2239950931268726</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="J13">
-        <v>0.2258736970910309</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3302783333333333</v>
+        <v>0.6972636666666667</v>
       </c>
       <c r="N13">
-        <v>0.990835</v>
+        <v>2.091791</v>
       </c>
       <c r="O13">
-        <v>0.06105350986589683</v>
+        <v>0.1552745068456214</v>
       </c>
       <c r="P13">
-        <v>0.07184031074984699</v>
+        <v>0.1770157011351462</v>
       </c>
       <c r="Q13">
-        <v>0.2233802277811111</v>
+        <v>0.08960442411844446</v>
       </c>
       <c r="R13">
-        <v>2.01042205003</v>
+        <v>0.8064398170660001</v>
       </c>
       <c r="S13">
-        <v>0.01367568662813399</v>
+        <v>0.004689726204830802</v>
       </c>
       <c r="T13">
-        <v>0.01622683658923647</v>
+        <v>0.00543035533367266</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0753385</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="H14">
-        <v>0.150677</v>
+        <v>3.659755</v>
       </c>
       <c r="I14">
-        <v>0.02495116503186106</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="J14">
-        <v>0.01677361711753432</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.206781</v>
+        <v>0.824894</v>
       </c>
       <c r="N14">
-        <v>2.413562</v>
+        <v>1.649788</v>
       </c>
       <c r="O14">
-        <v>0.2230791676398498</v>
+        <v>0.1836966633615576</v>
       </c>
       <c r="P14">
-        <v>0.1749948720967893</v>
+        <v>0.1396116435840629</v>
       </c>
       <c r="Q14">
-        <v>0.09091707036850001</v>
+        <v>1.006303313656667</v>
       </c>
       <c r="R14">
-        <v>0.363668281474</v>
+        <v>6.03781988194</v>
       </c>
       <c r="S14">
-        <v>0.005566085126952092</v>
+        <v>0.05266801351042116</v>
       </c>
       <c r="T14">
-        <v>0.002935296982083435</v>
+        <v>0.04065710386044138</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0753385</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="H15">
-        <v>0.150677</v>
+        <v>3.659755</v>
       </c>
       <c r="I15">
-        <v>0.02495116503186106</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="J15">
-        <v>0.01677361711753432</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.702509</v>
       </c>
       <c r="O15">
-        <v>0.2281420920335594</v>
+        <v>0.2748387669066721</v>
       </c>
       <c r="P15">
-        <v>0.2684497389717816</v>
+        <v>0.3133210854211482</v>
       </c>
       <c r="Q15">
-        <v>0.09298049143216666</v>
+        <v>1.505586202810555</v>
       </c>
       <c r="R15">
-        <v>0.5578829485929999</v>
+        <v>13.550275825295</v>
       </c>
       <c r="S15">
-        <v>0.005692410989043375</v>
+        <v>0.07879953627757259</v>
       </c>
       <c r="T15">
-        <v>0.004502873136814697</v>
+        <v>0.09124402223632305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0753385</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="H16">
-        <v>0.150677</v>
+        <v>3.659755</v>
       </c>
       <c r="I16">
-        <v>0.02495116503186106</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="J16">
-        <v>0.01677361711753432</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7517809999999999</v>
+        <v>0.2308983333333333</v>
       </c>
       <c r="N16">
-        <v>2.255343</v>
+        <v>0.6926950000000001</v>
       </c>
       <c r="O16">
-        <v>0.1389702686133225</v>
+        <v>0.05141903494155376</v>
       </c>
       <c r="P16">
-        <v>0.1635232323923682</v>
+        <v>0.05861861490837761</v>
       </c>
       <c r="Q16">
-        <v>0.0566380528685</v>
+        <v>0.2816771099694445</v>
       </c>
       <c r="R16">
-        <v>0.339828317211</v>
+        <v>2.535093989725</v>
       </c>
       <c r="S16">
-        <v>0.00346747010669307</v>
+        <v>0.01474244756239435</v>
       </c>
       <c r="T16">
-        <v>0.002742876089971171</v>
+        <v>0.01707066153869979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0753385</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="H17">
-        <v>0.150677</v>
+        <v>3.659755</v>
       </c>
       <c r="I17">
-        <v>0.02495116503186106</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="J17">
-        <v>0.01677361711753432</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.2299925</v>
+        <v>0.8296935</v>
       </c>
       <c r="N17">
-        <v>2.459985</v>
+        <v>1.659387</v>
       </c>
       <c r="O17">
-        <v>0.227369923045903</v>
+        <v>0.184765469942529</v>
       </c>
       <c r="P17">
-        <v>0.1783607632350112</v>
+        <v>0.1404239492662254</v>
       </c>
       <c r="Q17">
-        <v>0.09266578996125001</v>
+        <v>1.0121583116975</v>
       </c>
       <c r="R17">
-        <v>0.370663159845</v>
+        <v>6.072949870184999</v>
       </c>
       <c r="S17">
-        <v>0.005673144473199877</v>
+        <v>0.05297445304185582</v>
       </c>
       <c r="T17">
-        <v>0.002991755151295271</v>
+        <v>0.04089366003611751</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0753385</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="H18">
-        <v>0.150677</v>
+        <v>3.659755</v>
       </c>
       <c r="I18">
-        <v>0.02495116503186106</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="J18">
-        <v>0.01677361711753432</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.656651</v>
+        <v>0.6736033333333333</v>
       </c>
       <c r="N18">
-        <v>1.969953</v>
+        <v>2.02081</v>
       </c>
       <c r="O18">
-        <v>0.1213850388014685</v>
+        <v>0.1500055580020662</v>
       </c>
       <c r="P18">
-        <v>0.1428310825542026</v>
+        <v>0.1710090056850397</v>
       </c>
       <c r="Q18">
-        <v>0.0494711013635</v>
+        <v>0.8217410557277777</v>
       </c>
       <c r="R18">
-        <v>0.296826608181</v>
+        <v>7.39566950155</v>
       </c>
       <c r="S18">
-        <v>0.0030286981355343</v>
+        <v>0.04300837375549431</v>
       </c>
       <c r="T18">
-        <v>0.002395793891247131</v>
+        <v>0.04980050894552424</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0753385</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="H19">
-        <v>0.150677</v>
+        <v>3.659755</v>
       </c>
       <c r="I19">
-        <v>0.02495116503186106</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="J19">
-        <v>0.01677361711753432</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3302783333333333</v>
+        <v>0.6972636666666667</v>
       </c>
       <c r="N19">
-        <v>0.990835</v>
+        <v>2.091791</v>
       </c>
       <c r="O19">
-        <v>0.06105350986589683</v>
+        <v>0.1552745068456214</v>
       </c>
       <c r="P19">
-        <v>0.07184031074984699</v>
+        <v>0.1770157011351462</v>
       </c>
       <c r="Q19">
-        <v>0.02488267421583333</v>
+        <v>0.8506047301338889</v>
       </c>
       <c r="R19">
-        <v>0.149296045295</v>
+        <v>7.655442571205</v>
       </c>
       <c r="S19">
-        <v>0.00152335620043835</v>
+        <v>0.04451904392118963</v>
       </c>
       <c r="T19">
-        <v>0.001205021866122619</v>
+        <v>0.05154975302362275</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.04270366666666667</v>
+        <v>0.0753385</v>
       </c>
       <c r="H20">
-        <v>0.128111</v>
+        <v>0.150677</v>
       </c>
       <c r="I20">
-        <v>0.01414291808923172</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="J20">
-        <v>0.01426153203570843</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.206781</v>
+        <v>0.824894</v>
       </c>
       <c r="N20">
-        <v>2.413562</v>
+        <v>1.649788</v>
       </c>
       <c r="O20">
-        <v>0.2230791676398498</v>
+        <v>0.1836966633615576</v>
       </c>
       <c r="P20">
-        <v>0.1749948720967893</v>
+        <v>0.1396116435840629</v>
       </c>
       <c r="Q20">
-        <v>0.05153397356366667</v>
+        <v>0.062146276619</v>
       </c>
       <c r="R20">
-        <v>0.309203841382</v>
+        <v>0.248585106476</v>
       </c>
       <c r="S20">
-        <v>0.003154990395344388</v>
+        <v>0.003252618660966265</v>
       </c>
       <c r="T20">
-        <v>0.002495694974493061</v>
+        <v>0.001673907252911664</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.04270366666666667</v>
+        <v>0.0753385</v>
       </c>
       <c r="H21">
-        <v>0.128111</v>
+        <v>0.150677</v>
       </c>
       <c r="I21">
-        <v>0.01414291808923172</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="J21">
-        <v>0.01426153203570843</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.702509</v>
       </c>
       <c r="O21">
-        <v>0.2281420920335594</v>
+        <v>0.2748387669066721</v>
       </c>
       <c r="P21">
-        <v>0.2684497389717816</v>
+        <v>0.3133210854211482</v>
       </c>
       <c r="Q21">
-        <v>0.05270357005544445</v>
+        <v>0.09298049143216666</v>
       </c>
       <c r="R21">
-        <v>0.474332130499</v>
+        <v>0.557882948593</v>
       </c>
       <c r="S21">
-        <v>0.003226594920336595</v>
+        <v>0.004866423187219831</v>
       </c>
       <c r="T21">
-        <v>0.00382850455232363</v>
+        <v>0.003756638228106103</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.04270366666666667</v>
+        <v>0.0753385</v>
       </c>
       <c r="H22">
-        <v>0.128111</v>
+        <v>0.150677</v>
       </c>
       <c r="I22">
-        <v>0.01414291808923172</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="J22">
-        <v>0.01426153203570843</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7517809999999999</v>
+        <v>0.2308983333333333</v>
       </c>
       <c r="N22">
-        <v>2.255343</v>
+        <v>0.6926950000000001</v>
       </c>
       <c r="O22">
-        <v>0.1389702686133225</v>
+        <v>0.05141903494155376</v>
       </c>
       <c r="P22">
-        <v>0.1635232323923682</v>
+        <v>0.05861861490837761</v>
       </c>
       <c r="Q22">
-        <v>0.03210380523033333</v>
+        <v>0.01739553408583333</v>
       </c>
       <c r="R22">
-        <v>0.288934247073</v>
+        <v>0.104373204515</v>
       </c>
       <c r="S22">
-        <v>0.00196544512583675</v>
+        <v>0.0009104493762665374</v>
       </c>
       <c r="T22">
-        <v>0.002332091817346354</v>
+        <v>0.0007028219289724771</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.04270366666666667</v>
+        <v>0.0753385</v>
       </c>
       <c r="H23">
-        <v>0.128111</v>
+        <v>0.150677</v>
       </c>
       <c r="I23">
-        <v>0.01414291808923172</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="J23">
-        <v>0.01426153203570843</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.2299925</v>
+        <v>0.8296935</v>
       </c>
       <c r="N23">
-        <v>2.459985</v>
+        <v>1.659387</v>
       </c>
       <c r="O23">
-        <v>0.227369923045903</v>
+        <v>0.184765469942529</v>
       </c>
       <c r="P23">
-        <v>0.1783607632350112</v>
+        <v>0.1404239492662254</v>
       </c>
       <c r="Q23">
-        <v>0.0525251897225</v>
+        <v>0.06250786374975</v>
       </c>
       <c r="R23">
-        <v>0.315151138335</v>
+        <v>0.250031454999</v>
       </c>
       <c r="S23">
-        <v>0.003215674197593127</v>
+        <v>0.003271543447985334</v>
       </c>
       <c r="T23">
-        <v>0.00254369773878952</v>
+        <v>0.001683646586523436</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.04270366666666667</v>
+        <v>0.0753385</v>
       </c>
       <c r="H24">
-        <v>0.128111</v>
+        <v>0.150677</v>
       </c>
       <c r="I24">
-        <v>0.01414291808923172</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="J24">
-        <v>0.01426153203570843</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.656651</v>
+        <v>0.6736033333333333</v>
       </c>
       <c r="N24">
-        <v>1.969953</v>
+        <v>2.02081</v>
       </c>
       <c r="O24">
-        <v>0.1213850388014685</v>
+        <v>0.1500055580020662</v>
       </c>
       <c r="P24">
-        <v>0.1428310825542026</v>
+        <v>0.1710090056850397</v>
       </c>
       <c r="Q24">
-        <v>0.02804140542033333</v>
+        <v>0.05074826472833333</v>
       </c>
       <c r="R24">
-        <v>0.252372648783</v>
+        <v>0.30448958837</v>
       </c>
       <c r="S24">
-        <v>0.001716738661027384</v>
+        <v>0.002656068260999691</v>
       </c>
       <c r="T24">
-        <v>0.002036990059541677</v>
+        <v>0.002050353448901568</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.04270366666666667</v>
+        <v>0.0753385</v>
       </c>
       <c r="H25">
-        <v>0.128111</v>
+        <v>0.150677</v>
       </c>
       <c r="I25">
-        <v>0.01414291808923172</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="J25">
-        <v>0.01426153203570843</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3302783333333333</v>
+        <v>0.6972636666666667</v>
       </c>
       <c r="N25">
-        <v>0.990835</v>
+        <v>2.091791</v>
       </c>
       <c r="O25">
-        <v>0.06105350986589683</v>
+        <v>0.1552745068456214</v>
       </c>
       <c r="P25">
-        <v>0.07184031074984699</v>
+        <v>0.1770157011351462</v>
       </c>
       <c r="Q25">
-        <v>0.01410409585388889</v>
+        <v>0.05253079875116667</v>
       </c>
       <c r="R25">
-        <v>0.126936862685</v>
+        <v>0.315184792507</v>
       </c>
       <c r="S25">
-        <v>0.0008634747890934798</v>
+        <v>0.00274936272274227</v>
       </c>
       <c r="T25">
-        <v>0.001024552893214192</v>
+        <v>0.002122372163256941</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.096548</v>
+        <v>2.49977</v>
       </c>
       <c r="H26">
-        <v>6.289643999999999</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="I26">
-        <v>0.6943503672785926</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="J26">
-        <v>0.7001737508816677</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.206781</v>
+        <v>0.824894</v>
       </c>
       <c r="N26">
-        <v>2.413562</v>
+        <v>1.649788</v>
       </c>
       <c r="O26">
-        <v>0.2230791676398498</v>
+        <v>0.1836966633615576</v>
       </c>
       <c r="P26">
-        <v>0.1749948720967893</v>
+        <v>0.1396116435840629</v>
       </c>
       <c r="Q26">
-        <v>2.530074291988</v>
+        <v>2.06204527438</v>
       </c>
       <c r="R26">
-        <v>15.180445751928</v>
+        <v>12.37227164628</v>
       </c>
       <c r="S26">
-        <v>0.1548951019829324</v>
+        <v>0.1079235523686248</v>
       </c>
       <c r="T26">
-        <v>0.1225268159810666</v>
+        <v>0.0833116494278023</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.096548</v>
+        <v>2.49977</v>
       </c>
       <c r="H27">
-        <v>6.289643999999999</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="I27">
-        <v>0.6943503672785926</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="J27">
-        <v>0.7001737508816677</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.702509</v>
       </c>
       <c r="O27">
-        <v>0.2281420920335594</v>
+        <v>0.2748387669066721</v>
       </c>
       <c r="P27">
-        <v>0.2684497389717816</v>
+        <v>0.3133210854211482</v>
       </c>
       <c r="Q27">
-        <v>2.587495946310666</v>
+        <v>3.085140307643333</v>
       </c>
       <c r="R27">
-        <v>23.287463516796</v>
+        <v>27.76626276879</v>
       </c>
       <c r="S27">
-        <v>0.1584105453952084</v>
+        <v>0.1614704127466901</v>
       </c>
       <c r="T27">
-        <v>0.1879614606590769</v>
+        <v>0.1869707694632782</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.096548</v>
+        <v>2.49977</v>
       </c>
       <c r="H28">
-        <v>6.289643999999999</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="I28">
-        <v>0.6943503672785926</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="J28">
-        <v>0.7001737508816677</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7517809999999999</v>
+        <v>0.2308983333333333</v>
       </c>
       <c r="N28">
-        <v>2.255343</v>
+        <v>0.6926950000000001</v>
       </c>
       <c r="O28">
-        <v>0.1389702686133225</v>
+        <v>0.05141903494155376</v>
       </c>
       <c r="P28">
-        <v>0.1635232323923682</v>
+        <v>0.05861861490837761</v>
       </c>
       <c r="Q28">
-        <v>1.576144951988</v>
+        <v>0.5771927267166667</v>
       </c>
       <c r="R28">
-        <v>14.185304567892</v>
+        <v>5.19473454045</v>
       </c>
       <c r="S28">
-        <v>0.09649405705246511</v>
+        <v>0.03020917641457956</v>
       </c>
       <c r="T28">
-        <v>0.1144946749804591</v>
+        <v>0.03497998712585588</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.096548</v>
+        <v>2.49977</v>
       </c>
       <c r="H29">
-        <v>6.289643999999999</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="I29">
-        <v>0.6943503672785926</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="J29">
-        <v>0.7001737508816677</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.2299925</v>
+        <v>0.8296935</v>
       </c>
       <c r="N29">
-        <v>2.459985</v>
+        <v>1.659387</v>
       </c>
       <c r="O29">
-        <v>0.227369923045903</v>
+        <v>0.184765469942529</v>
       </c>
       <c r="P29">
-        <v>0.1783607632350112</v>
+        <v>0.1404239492662254</v>
       </c>
       <c r="Q29">
-        <v>2.57873831589</v>
+        <v>2.074042920495</v>
       </c>
       <c r="R29">
-        <v>15.47242989534</v>
+        <v>12.44425752297</v>
       </c>
       <c r="S29">
-        <v>0.1578743895750281</v>
+        <v>0.1085514864905765</v>
       </c>
       <c r="T29">
-        <v>0.1248835246043749</v>
+        <v>0.08379638354082621</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.096548</v>
+        <v>2.49977</v>
       </c>
       <c r="H30">
-        <v>6.289643999999999</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="I30">
-        <v>0.6943503672785926</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="J30">
-        <v>0.7001737508816677</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.656651</v>
+        <v>0.6736033333333333</v>
       </c>
       <c r="N30">
-        <v>1.969953</v>
+        <v>2.02081</v>
       </c>
       <c r="O30">
-        <v>0.1213850388014685</v>
+        <v>0.1500055580020662</v>
       </c>
       <c r="P30">
-        <v>0.1428310825542026</v>
+        <v>0.1710090056850397</v>
       </c>
       <c r="Q30">
-        <v>1.376700340748</v>
+        <v>1.683853404566667</v>
       </c>
       <c r="R30">
-        <v>12.390303066732</v>
+        <v>15.1546806411</v>
       </c>
       <c r="S30">
-        <v>0.08428374627392587</v>
+        <v>0.0881297046901544</v>
       </c>
       <c r="T30">
-        <v>0.1000065748144652</v>
+        <v>0.1020476656880746</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,46 +2341,418 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.096548</v>
+        <v>2.49977</v>
       </c>
       <c r="H31">
-        <v>6.289643999999999</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="I31">
-        <v>0.6943503672785926</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="J31">
-        <v>0.7001737508816677</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.6972636666666667</v>
+      </c>
+      <c r="N31">
+        <v>2.091791</v>
+      </c>
+      <c r="O31">
+        <v>0.1552745068456214</v>
+      </c>
+      <c r="P31">
+        <v>0.1770157011351462</v>
+      </c>
+      <c r="Q31">
+        <v>1.742998796023333</v>
+      </c>
+      <c r="R31">
+        <v>15.68698916421</v>
+      </c>
+      <c r="S31">
+        <v>0.09122526269343618</v>
+      </c>
+      <c r="T31">
+        <v>0.105632092407165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M31">
-        <v>0.3302783333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.990835</v>
-      </c>
-      <c r="O31">
-        <v>0.06105350986589683</v>
-      </c>
-      <c r="P31">
-        <v>0.07184031074984699</v>
-      </c>
-      <c r="Q31">
-        <v>0.6924443791933333</v>
-      </c>
-      <c r="R31">
-        <v>6.23199941274</v>
-      </c>
-      <c r="S31">
-        <v>0.04239252699903264</v>
-      </c>
-      <c r="T31">
-        <v>0.05030069984222496</v>
+      <c r="G32">
+        <v>0.2092486666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.627746</v>
+      </c>
+      <c r="I32">
+        <v>0.04917876424317944</v>
+      </c>
+      <c r="J32">
+        <v>0.04995129369701767</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.824894</v>
+      </c>
+      <c r="N32">
+        <v>1.649788</v>
+      </c>
+      <c r="O32">
+        <v>0.1836966633615576</v>
+      </c>
+      <c r="P32">
+        <v>0.1396116435840629</v>
+      </c>
+      <c r="Q32">
+        <v>0.1726079696413333</v>
+      </c>
+      <c r="R32">
+        <v>1.035647817848</v>
+      </c>
+      <c r="S32">
+        <v>0.009033974899716741</v>
+      </c>
+      <c r="T32">
+        <v>0.00697378221219088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.2092486666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.627746</v>
+      </c>
+      <c r="I33">
+        <v>0.04917876424317944</v>
+      </c>
+      <c r="J33">
+        <v>0.04995129369701767</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.234169666666667</v>
+      </c>
+      <c r="N33">
+        <v>3.702509</v>
+      </c>
+      <c r="O33">
+        <v>0.2748387669066721</v>
+      </c>
+      <c r="P33">
+        <v>0.3133210854211482</v>
+      </c>
+      <c r="Q33">
+        <v>0.2582483571904444</v>
+      </c>
+      <c r="R33">
+        <v>2.324235214714</v>
+      </c>
+      <c r="S33">
+        <v>0.01351623092258938</v>
+      </c>
+      <c r="T33">
+        <v>0.01565079355934014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.2092486666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.627746</v>
+      </c>
+      <c r="I34">
+        <v>0.04917876424317944</v>
+      </c>
+      <c r="J34">
+        <v>0.04995129369701767</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.2308983333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.6926950000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.05141903494155376</v>
+      </c>
+      <c r="P34">
+        <v>0.05861861490837761</v>
+      </c>
+      <c r="Q34">
+        <v>0.04831516838555556</v>
+      </c>
+      <c r="R34">
+        <v>0.4348365154700001</v>
+      </c>
+      <c r="S34">
+        <v>0.002528724597002478</v>
+      </c>
+      <c r="T34">
+        <v>0.002928075649400748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.2092486666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.627746</v>
+      </c>
+      <c r="I35">
+        <v>0.04917876424317944</v>
+      </c>
+      <c r="J35">
+        <v>0.04995129369701767</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.8296935</v>
+      </c>
+      <c r="N35">
+        <v>1.659387</v>
+      </c>
+      <c r="O35">
+        <v>0.184765469942529</v>
+      </c>
+      <c r="P35">
+        <v>0.1404239492662254</v>
+      </c>
+      <c r="Q35">
+        <v>0.173612258617</v>
+      </c>
+      <c r="R35">
+        <v>1.041673551702</v>
+      </c>
+      <c r="S35">
+        <v>0.00908653748658389</v>
+      </c>
+      <c r="T35">
+        <v>0.007014357931892333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.2092486666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.627746</v>
+      </c>
+      <c r="I36">
+        <v>0.04917876424317944</v>
+      </c>
+      <c r="J36">
+        <v>0.04995129369701767</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.6736033333333333</v>
+      </c>
+      <c r="N36">
+        <v>2.02081</v>
+      </c>
+      <c r="O36">
+        <v>0.1500055580020662</v>
+      </c>
+      <c r="P36">
+        <v>0.1710090056850397</v>
+      </c>
+      <c r="Q36">
+        <v>0.1409505993622222</v>
+      </c>
+      <c r="R36">
+        <v>1.26855539426</v>
+      </c>
+      <c r="S36">
+        <v>0.007377087972150193</v>
+      </c>
+      <c r="T36">
+        <v>0.00854212106780838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.2092486666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.627746</v>
+      </c>
+      <c r="I37">
+        <v>0.04917876424317944</v>
+      </c>
+      <c r="J37">
+        <v>0.04995129369701767</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.6972636666666667</v>
+      </c>
+      <c r="N37">
+        <v>2.091791</v>
+      </c>
+      <c r="O37">
+        <v>0.1552745068456214</v>
+      </c>
+      <c r="P37">
+        <v>0.1770157011351462</v>
+      </c>
+      <c r="Q37">
+        <v>0.1459014925651111</v>
+      </c>
+      <c r="R37">
+        <v>1.313113433086</v>
+      </c>
+      <c r="S37">
+        <v>0.007636208365136765</v>
+      </c>
+      <c r="T37">
+        <v>0.008842163276385193</v>
       </c>
     </row>
   </sheetData>
